--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints1.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints1.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>1.340713922651815e-16</v>
+        <v>7.020729680441638e-17</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>1.349105016950666e-16</v>
+        <v>7.196671581221839e-17</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>1.357105599309275e-16</v>
+        <v>7.359720356136165e-17</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>1.364798118156891e-16</v>
+        <v>7.511121260855064e-17</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>1.372265021922758e-16</v>
+        <v>7.652119551048976e-17</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>1.379588759036123e-16</v>
+        <v>7.783960482388332e-17</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>1.386851777926234e-16</v>
+        <v>7.907889310543586e-17</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>1.394136527022335e-16</v>
+        <v>8.025151291185167e-17</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>1.401525454753675e-16</v>
+        <v>8.136991679983521e-17</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>1.4091010095495e-16</v>
+        <v>8.244655732609086e-17</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>1.416945639839052e-16</v>
+        <v>8.349388704732254e-17</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>1.425141794051586e-16</v>
+        <v>8.452435852023565e-17</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>1.433771920616344e-16</v>
+        <v>8.555042430153406e-17</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>1.442918467962573e-16</v>
+        <v>8.658453694792224e-17</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>1.452663884519519e-16</v>
+        <v>8.76391490161045e-17</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>1.46309061871643e-16</v>
+        <v>8.872671306278536e-17</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>1.474281118982551e-16</v>
+        <v>8.985968164466912e-17</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>1.48631783374713e-16</v>
+        <v>9.105050731846022e-17</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>1.499283211439412e-16</v>
+        <v>9.231164264086306e-17</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>1.513259700488645e-16</v>
+        <v>9.365554016858206e-17</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>1.528329749324074e-16</v>
+        <v>9.50946524583216e-17</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>1.544575806374947e-16</v>
+        <v>9.664143206678613e-17</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>1.562080320070511e-16</v>
+        <v>9.830833155068e-17</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>1.58092573884001e-16</v>
+        <v>1.001078034667076e-16</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>1.601194511112694e-16</v>
+        <v>1.020523003715734e-16</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>1.622969085317806e-16</v>
+        <v>1.041542748219818e-16</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>1.646331909884596e-16</v>
+        <v>1.064261793746371e-16</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>1.671365433242308e-16</v>
+        <v>1.088804665862438e-16</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>1.698152103820176e-16</v>
+        <v>1.115295890135049e-16</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>1.726774370047473e-16</v>
+        <v>1.143859992131275e-16</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>1.757314680353432e-16</v>
+        <v>1.174621497418147e-16</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>1.7898554831673e-16</v>
+        <v>1.207704931562708e-16</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>1.824479226918325e-16</v>
+        <v>1.243234820132003e-16</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>1.861268360035751e-16</v>
+        <v>1.281335688693076e-16</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>1.900305330948826e-16</v>
+        <v>1.322132062812971e-16</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>1.941672588086798e-16</v>
+        <v>1.365748468058732e-16</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>1.985452579878911e-16</v>
+        <v>1.412309429997404e-16</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>2.031727754754412e-16</v>
+        <v>1.461939474196029e-16</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>2.080580561142549e-16</v>
+        <v>1.514763126221652e-16</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>2.132093447472567e-16</v>
+        <v>1.570904911641317e-16</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>2.186348862173715e-16</v>
+        <v>1.630489356022069e-16</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>2.243429253675236e-16</v>
+        <v>1.69364098493095e-16</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>2.303417070406379e-16</v>
+        <v>1.760484323935006e-16</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>2.36639476079639e-16</v>
+        <v>1.83114389860128e-16</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>2.432444773274515e-16</v>
+        <v>1.905744234496817e-16</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>2.501649556270002e-16</v>
+        <v>1.984409857188659e-16</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>2.574091558212097e-16</v>
+        <v>2.067265292243852e-16</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>2.649854778129445e-16</v>
+        <v>2.154436283342449e-16</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>2.729401054502988e-16</v>
+        <v>2.246345395611407e-16</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>2.814060734867435e-16</v>
+        <v>2.344097473681254e-16</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>2.9052857380206e-16</v>
+        <v>2.448892865598049e-16</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>3.004527982760301e-16</v>
+        <v>2.561931919407854e-16</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>3.113239387884351e-16</v>
+        <v>2.684414983156727e-16</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>3.232871872190569e-16</v>
+        <v>2.817542404890734e-16</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>3.364877354476769e-16</v>
+        <v>2.962514532655929e-16</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>3.510707753540767e-16</v>
+        <v>3.120531714498376e-16</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>3.67181498818038e-16</v>
+        <v>3.292794298464137e-16</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>3.849650977193423e-16</v>
+        <v>3.48050263259927e-16</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>4.045667639377714e-16</v>
+        <v>3.684857064949837e-16</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>4.261316893531066e-16</v>
+        <v>3.907057943561897e-16</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>4.498050658451298e-16</v>
+        <v>4.148305616481513e-16</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>4.757320852936222e-16</v>
+        <v>4.409800431754744e-16</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>5.040579395783658e-16</v>
+        <v>4.692742737427652e-16</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>5.349278205791419e-16</v>
+        <v>4.998332881546296e-16</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>5.684869201757324e-16</v>
+        <v>5.327771212156738e-16</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>6.048804302479003e-16</v>
+        <v>5.682258077304858e-16</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>6.443298828841464e-16</v>
+        <v>6.063805921172949e-16</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>6.878748734866667e-16</v>
+        <v>6.483129627554324e-16</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>7.370515959496495e-16</v>
+        <v>6.956226823417684e-16</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>7.934032261816165e-16</v>
+        <v>7.499169409393783e-16</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>8.584729400910891e-16</v>
+        <v>8.128029286113372e-16</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>9.33803913586589e-16</v>
+        <v>8.8588783542072e-16</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>1.020939322576638e-15</v>
+        <v>9.707788514306022e-16</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>1.121422342969757e-15</v>
+        <v>1.069083166704059e-15</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>1.236796150674468e-15</v>
+        <v>1.182407971304165e-15</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>1.368603921599292e-15</v>
+        <v>1.312360455293995e-15</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>1.51838883165275e-15</v>
+        <v>1.460547808736625e-15</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>1.687694056743367e-15</v>
+        <v>1.62857722169513e-15</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>1.87806277277966e-15</v>
+        <v>1.818055884232585e-15</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>2.091038155670152e-15</v>
+        <v>2.030590986412065e-15</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>2.327780226856476e-15</v>
+        <v>2.267400202773713e-15</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>2.585115103776446e-15</v>
+        <v>2.525295353221339e-15</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>2.857128904488911e-15</v>
+        <v>2.798302769342269e-15</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>3.137864534567912e-15</v>
+        <v>3.080404852833745e-15</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>3.421364899587359e-15</v>
+        <v>3.365584005392872e-15</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>3.701672905121572e-15</v>
+        <v>3.647822628717174e-15</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>3.972831456744457e-15</v>
+        <v>3.921103124503753e-15</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>4.228883460030058e-15</v>
+        <v>4.179407894449855e-15</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>4.46387182055242e-15</v>
+        <v>4.416719340252722e-15</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>4.671839443885586e-15</v>
+        <v>4.627019863609595e-15</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>4.846829235603602e-15</v>
+        <v>4.804291866217722e-15</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>4.982884101280509e-15</v>
+        <v>4.942517749774342e-15</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>5.074046946490354e-15</v>
+        <v>5.0356799159767e-15</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>5.114360676807179e-15</v>
+        <v>5.077760766522037e-15</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>5.098435894762516e-15</v>
+        <v>5.063314813167036e-15</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>5.027667471325575e-15</v>
+        <v>4.99373357492715e-15</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>4.907916599352722e-15</v>
+        <v>4.874909612520853e-15</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>4.745123030773323e-15</v>
+        <v>4.712814656433748e-15</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>4.545226517516751e-15</v>
+        <v>4.513420437151444e-15</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>4.314166811512372e-15</v>
+        <v>4.282698685159547e-15</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>4.057883664689558e-15</v>
+        <v>4.026621130943662e-15</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>3.782316828977677e-15</v>
+        <v>3.751159504989396e-15</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>3.493406056306242e-15</v>
+        <v>3.462285537782499e-15</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>3.197091098604338e-15</v>
+        <v>3.165970959808292e-15</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>2.899311707801473e-15</v>
+        <v>2.868187501552521e-15</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>2.606007635827016e-15</v>
+        <v>2.574906893500793e-15</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>2.323118634610337e-15</v>
+        <v>2.292100866138711e-15</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>2.056584456080804e-15</v>
+        <v>2.025741149951884e-15</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>1.812344852167789e-15</v>
+        <v>1.781799475425919e-15</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>1.595908735261465e-15</v>
+        <v>1.565807861400169e-15</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>1.406733633738572e-15</v>
+        <v>1.377122328959411e-15</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>1.239812929492889e-15</v>
+        <v>1.210542824314697e-15</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>1.090035850206198e-15</v>
+        <v>1.060762994658869e-15</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>9.529098498803089e-16</v>
+        <v>9.231391156885354e-16</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>8.275107516803289e-16</v>
+        <v>7.968521192867898e-16</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>7.141918707493341e-16</v>
+        <v>6.824521812050425e-16</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>6.133081445390009e-16</v>
+        <v>5.804912160205764e-16</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>5.252080885605661e-16</v>
+        <v>4.91513672188601e-16</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>4.497453745146656e-16</v>
+        <v>4.154886947444842e-16</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>3.859360215521533e-16</v>
+        <v>3.514115772451965e-16</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>3.327150526141186e-16</v>
+        <v>2.981834473806744e-16</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>2.890174906416699e-16</v>
+        <v>2.547054328408731e-16</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>2.53778358575855e-16</v>
+        <v>2.198786613156879e-16</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>2.259326793577865e-16</v>
+        <v>1.926042604950783e-16</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>2.04415475928554e-16</v>
+        <v>1.717833580689811e-16</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>1.881617712292471e-16</v>
+        <v>1.563170817273326e-16</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>1.761065882009551e-16</v>
+        <v>1.451065591600696e-16</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>1.671849497847675e-16</v>
+        <v>1.370529180571284e-16</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>1.603318789217738e-16</v>
+        <v>1.310572861084457e-16</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>1.544823985530636e-16</v>
+        <v>1.26020791003958e-16</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>1.485715316197262e-16</v>
+        <v>1.208445604336019e-16</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>1.415346589137109e-16</v>
+        <v>1.144301073002735e-16</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>1.328022947199058e-16</v>
+        <v>1.062119370455651e-16</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>1.232827153068315e-16</v>
+        <v>9.721531017506116e-17</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>1.141586783253416e-16</v>
+        <v>8.876095605452441e-17</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>1.066129414262899e-16</v>
+        <v>8.216960404971734e-17</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>1.017913981239965e-16</v>
+        <v>7.871798539252088e-17</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>1.00067389896851e-16</v>
+        <v>7.876077396846851e-17</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>1.01081370707756e-16</v>
+        <v>8.17779267686042e-17</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>1.044448701962813e-16</v>
+        <v>8.721487898663341e-17</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>1.097694180020019e-16</v>
+        <v>9.45170658162703e-17</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>1.166665437644886e-16</v>
+        <v>1.031299224512213e-16</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>1.247477771233132e-16</v>
+        <v>1.124988840851952e-16</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>1.336246477180474e-16</v>
+        <v>1.220693859119005e-16</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>1.42908685188263e-16</v>
+        <v>1.31286863125046e-16</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>1.522114831380142e-16</v>
+        <v>1.395968544269884e-16</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>1.612849092812005e-16</v>
+        <v>1.466718929859701e-16</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>1.703185402846046e-16</v>
+        <v>1.528928216510595e-16</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>1.795870895410484e-16</v>
+        <v>1.587782532823111e-16</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>1.893652704433539e-16</v>
+        <v>1.648468007397796e-16</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>1.999277963843427e-16</v>
+        <v>1.716170768835198e-16</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>2.115493807568371e-16</v>
+        <v>1.796076945735862e-16</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>2.245047369536588e-16</v>
+        <v>1.893372666700335e-16</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>2.390685783676297e-16</v>
+        <v>2.013244060329164e-16</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>2.555156183915716e-16</v>
+        <v>2.160877255222896e-16</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>2.74169356717544e-16</v>
+        <v>2.341563387058862e-16</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>2.956776243549342e-16</v>
+        <v>2.561291678560852e-16</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>3.208205607566611e-16</v>
+        <v>2.8263361316449e-16</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>3.503786956660372e-16</v>
+        <v>3.14297158828365e-16</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>3.851325588263566e-16</v>
+        <v>3.517472890449549e-16</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>4.258626799809658e-16</v>
+        <v>3.956114880115604e-16</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>4.733495888731615e-16</v>
+        <v>4.465172399254291e-16</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>5.283738152462563e-16</v>
+        <v>5.050920289838254e-16</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>5.917158888435627e-16</v>
+        <v>5.719633393840141e-16</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>6.64156339408394e-16</v>
+        <v>6.4775865532326e-16</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>7.464756966840617e-16</v>
+        <v>7.331054609988267e-16</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>8.394544904138789e-16</v>
+        <v>8.286312406079791e-16</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>9.438732503411582e-16</v>
+        <v>9.349634783479818e-16</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>1.060511804016681e-15</v>
+        <v>1.052729003431385e-15</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>1.189178403734507e-15</v>
+        <v>1.181648388006703e-15</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>1.32678156464893e-15</v>
+        <v>1.318737413987641e-15</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>1.469691201065565e-15</v>
+        <v>1.46050947212424e-15</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>1.614277227290027e-15</v>
+        <v>1.603477953166544e-15</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>1.756909557627933e-15</v>
+        <v>1.744156247864593e-15</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>1.893958106384897e-15</v>
+        <v>1.879057746968432e-15</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>2.021792787866535e-15</v>
+        <v>2.004695841228101e-15</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>2.136783516378412e-15</v>
+        <v>2.117583921393593e-15</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>2.235300206226255e-15</v>
+        <v>2.21423537821506e-15</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>2.313756387746418e-15</v>
+        <v>2.291205453962517e-15</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>2.37046449938438e-15</v>
+        <v>2.346871477632142e-15</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>2.406328265008693e-15</v>
+        <v>2.382097231751172e-15</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>2.422437708786956e-15</v>
+        <v>2.397925262263745e-15</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>2.419882854886769e-15</v>
+        <v>2.395398115114002e-15</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>2.39975372747573e-15</v>
+        <v>2.375558336246083e-15</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>2.36314035072144e-15</v>
+        <v>2.339448471604126e-15</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>2.311132748791498e-15</v>
+        <v>2.288111067132272e-15</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>2.244820945853502e-15</v>
+        <v>2.22258866877466e-15</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>2.165295399280186e-15</v>
+        <v>2.14392426681162e-15</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>2.073921857757599e-15</v>
+        <v>2.053443216351745e-15</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>1.972812870862348e-15</v>
+        <v>1.953236862184422e-15</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>1.864206405888163e-15</v>
+        <v>1.84552518938096e-15</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>1.750340430128772e-15</v>
+        <v>1.732528183012667e-15</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>1.633452910877906e-15</v>
+        <v>1.616465828150856e-15</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>1.515781815429293e-15</v>
+        <v>1.499558109866835e-15</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>1.399565111076663e-15</v>
+        <v>1.384025013231914e-15</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>1.287040765113746e-15</v>
+        <v>1.272086523317405e-15</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>1.180446744834321e-15</v>
+        <v>1.165962625194666e-15</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>1.081714313319608e-15</v>
+        <v>1.067570795943304e-15</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>9.910181450545632e-16</v>
+        <v>9.770959570834298e-16</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>9.079086407298829e-16</v>
+        <v>8.941072974387258e-16</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>8.31935451941029e-16</v>
+        <v>8.181732669865011e-16</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>7.62648230283463e-16</v>
+        <v>7.488623157040652e-16</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>6.995966273526475e-16</v>
+        <v>6.857428935687281e-16</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>6.423302947440441e-16</v>
+        <v>6.283834505577989e-16</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>5.903988840531152e-16</v>
+        <v>5.763524366485875e-16</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>5.43352046875322e-16</v>
+        <v>5.292183018184025e-16</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>5.007429575197428e-16</v>
+        <v>4.865527052414203e-16</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>4.622316275943242e-16</v>
+        <v>4.48024635015511e-16</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>4.276015838531556e-16</v>
+        <v>4.134156017036507e-16</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>3.96643233350357e-16</v>
+        <v>3.825133838314453e-16</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>3.691469831400479e-16</v>
+        <v>3.551057599244993e-16</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>3.449032402763481e-16</v>
+        <v>3.309805085084186e-16</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>3.237024118133775e-16</v>
+        <v>3.099254081088078e-16</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>3.053349048052638e-16</v>
+        <v>2.917282372512806e-16</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>2.895911263061094e-16</v>
+        <v>2.761767744614244e-16</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>2.762614833700434e-16</v>
+        <v>2.630587982648541e-16</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>2.651363830511858e-16</v>
+        <v>2.521620871871748e-16</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>2.56006232403656e-16</v>
+        <v>2.432744197539915e-16</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>2.486614384815739e-16</v>
+        <v>2.361835744909097e-16</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>2.428924083390595e-16</v>
+        <v>2.306773299235343e-16</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>2.384895490302322e-16</v>
+        <v>2.265434645774708e-16</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>2.35243267609212e-16</v>
+        <v>2.235697569783242e-16</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>2.329439711301185e-16</v>
+        <v>2.215439856516996e-16</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>2.313820666470716e-16</v>
+        <v>2.202539291232024e-16</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>2.30347961214191e-16</v>
+        <v>2.194873659184376e-16</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>2.296320618855963e-16</v>
+        <v>2.190320745630105e-16</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>2.290247757154076e-16</v>
+        <v>2.186758335825263e-16</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>2.283165097577443e-16</v>
+        <v>2.182064215025901e-16</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>2.272976710667264e-16</v>
+        <v>2.174116168488072e-16</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>2.257586666964735e-16</v>
+        <v>2.160791981467826e-16</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>2.234899037011055e-16</v>
+        <v>2.139969439221218e-16</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>2.202817891347421e-16</v>
+        <v>2.109526327004296e-16</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>2.159247300515029e-16</v>
+        <v>2.067340430073115e-16</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>2.10209133505511e-16</v>
+        <v>2.011289533683756e-16</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>2.029283510501835e-16</v>
+        <v>1.939281467072523e-16</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>1.940695951831546e-16</v>
+        <v>1.85120210524541e-16</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>1.83930888075474e-16</v>
+        <v>1.750108646664839e-16</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>1.728382325052749e-16</v>
+        <v>1.639343787842867e-16</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>1.611176312506907e-16</v>
+        <v>1.522250225291556e-16</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>1.490950870898548e-16</v>
+        <v>1.402170655522964e-16</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>1.370966028009004e-16</v>
+        <v>1.282447775049152e-16</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>1.254481811619608e-16</v>
+        <v>1.166424280382178e-16</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>1.144758249511692e-16</v>
+        <v>1.057442868034102e-16</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>1.045055369466591e-16</v>
+        <v>9.588462345169829e-17</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>9.586331992656358e-17</v>
+        <v>8.739770763428809e-17</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>8.887517666901607e-17</v>
+        <v>8.061780900238555e-17</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>8.386710995214985e-17</v>
+        <v>7.587919720719658e-17</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>8.116512255409818e-17</v>
+        <v>7.351614189992716e-17</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>8.109195810048173e-17</v>
+        <v>7.385954914420659e-17</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>8.372917068773783e-17</v>
+        <v>7.699140688742938e-17</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>8.875555809041335e-17</v>
+        <v>8.257804098217949e-17</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>9.581165793429513e-17</v>
+        <v>9.024629113838653e-17</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>1.045380078451632e-16</v>
+        <v>9.962299706597246e-17</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>1.145751454487993e-16</v>
+        <v>1.103349984748614e-16</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>1.255636083709855e-16</v>
+        <v>1.220091350749774e-16</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>1.371439342375035e-16</v>
+        <v>1.342722465762446e-16</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>1.489566606741352e-16</v>
+        <v>1.467511726885871e-16</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>1.606423253066626e-16</v>
+        <v>1.59072753121929e-16</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>1.718414657608675e-16</v>
+        <v>1.708638275861943e-16</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>1.821946196625317e-16</v>
+        <v>1.817512357913072e-16</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>1.913423246374371e-16</v>
+        <v>1.913618174471916e-16</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>1.989251183113656e-16</v>
+        <v>1.99322412263772e-16</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>2.045927615144053e-16</v>
+        <v>2.05269477716262e-16</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>2.082316264687479e-16</v>
+        <v>2.090862047098879e-16</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>2.099791515546213e-16</v>
+        <v>2.109175907086451e-16</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>2.099848924966869e-16</v>
+        <v>2.109212688908456e-16</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>2.083984050196055e-16</v>
+        <v>2.09254872434801e-16</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>2.053692448480382e-16</v>
+        <v>2.060760345188228e-16</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>2.010469677066461e-16</v>
+        <v>2.015423883212231e-16</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>1.955811293200903e-16</v>
+        <v>1.958115670203135e-16</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>1.891212854130317e-16</v>
+        <v>1.890412037944057e-16</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>1.818169917101316e-16</v>
+        <v>1.813889318218116e-16</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>1.738178039360509e-16</v>
+        <v>1.730123842808427e-16</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>1.652732778154506e-16</v>
+        <v>1.640691943498109e-16</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>1.563329690729919e-16</v>
+        <v>1.547169952070278e-16</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>1.471464334333358e-16</v>
+        <v>1.451134200308054e-16</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>1.378632266211433e-16</v>
+        <v>1.354161019994552e-16</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>1.286329043610845e-16</v>
+        <v>1.257826742912982e-16</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>1.196050223777936e-16</v>
+        <v>1.163707700846185e-16</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>1.109291363959667e-16</v>
+        <v>1.073380225577641e-16</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>1.027548021402389e-16</v>
+        <v>9.88420648890198e-17</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>9.522114818721123e-17</v>
+        <v>9.102949941929046e-17</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>8.835850837417808e-17</v>
+        <v>8.393183497847698e-17</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>8.213250685903646e-17</v>
+        <v>7.751212429055746e-17</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>7.650791079729423e-17</v>
+        <v>7.173251346017766e-17</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>7.144948734445911e-17</v>
+        <v>6.655514859198334e-17</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>6.692200365603892e-17</v>
+        <v>6.194217579062021e-17</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>6.28902268875415e-17</v>
+        <v>5.78557411607341e-17</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>5.93189241944746e-17</v>
+        <v>5.425799080697073e-17</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>5.617286273234604e-17</v>
+        <v>5.111107083397586e-17</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>5.341680965666361e-17</v>
+        <v>4.837712734639529e-17</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>5.101553212293513e-17</v>
+        <v>4.601830644887475e-17</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>4.893379728666837e-17</v>
+        <v>4.399675424606001e-17</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>4.713637230337114e-17</v>
+        <v>4.227461684259682e-17</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>4.558802432855124e-17</v>
+        <v>4.081404034313094e-17</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>4.425352051771649e-17</v>
+        <v>3.957717085230816e-17</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>4.309762802637463e-17</v>
+        <v>3.852615447477421e-17</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>4.208511401003353e-17</v>
+        <v>3.762313731517486e-17</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>4.118074562420095e-17</v>
+        <v>3.683026547815589e-17</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>4.034933398502287e-17</v>
+        <v>3.610973229549979e-17</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>3.956537977760485e-17</v>
+        <v>3.543414065210925e-17</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>3.882518694302154e-17</v>
+        <v>3.47995167814538e-17</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>3.812803836086916e-17</v>
+        <v>3.420508720577862e-17</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>3.747321691074391e-17</v>
+        <v>3.365007844732887e-17</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>3.686000547224202e-17</v>
+        <v>3.313371702834973e-17</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>3.628768692495967e-17</v>
+        <v>3.265522947108633e-17</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>3.575554414849309e-17</v>
+        <v>3.221384229778385e-17</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>3.526286002243849e-17</v>
+        <v>3.180878203068745e-17</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>3.480891742639208e-17</v>
+        <v>3.143927519204228e-17</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>3.439299923995007e-17</v>
+        <v>3.110454830409352e-17</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>3.401438834270867e-17</v>
+        <v>3.080382788908632e-17</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>3.367236761426408e-17</v>
+        <v>3.053634046926583e-17</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>3.336621993421252e-17</v>
+        <v>3.030131256687723e-17</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>3.309522818215019e-17</v>
+        <v>3.009797070416567e-17</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>3.285867523767352e-17</v>
+        <v>2.992554140337647e-17</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>3.265584398037808e-17</v>
+        <v>2.978325118675433e-17</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>3.248601728986087e-17</v>
+        <v>2.967032657654497e-17</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>3.234847804571754e-17</v>
+        <v>2.958599409499315e-17</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>3.224250912754451e-17</v>
+        <v>2.952948026434419e-17</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>3.216739341493796e-17</v>
+        <v>2.950001160684324e-17</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>3.212241378749414e-17</v>
+        <v>2.949681464473547e-17</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>3.210685312480922e-17</v>
+        <v>2.951911590026602e-17</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>3.211999430647942e-17</v>
+        <v>2.956614189568007e-17</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>3.216112021210097e-17</v>
+        <v>2.963711915322277e-17</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>3.222951372127005e-17</v>
+        <v>2.973127419513928e-17</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>3.232445771358289e-17</v>
+        <v>2.984783354367476e-17</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>3.244523506863568e-17</v>
+        <v>2.998602372107438e-17</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>3.259112866602466e-17</v>
+        <v>3.01450712495833e-17</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>3.276142138534602e-17</v>
+        <v>3.032420265144668e-17</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>3.295539610619597e-17</v>
+        <v>3.052264444890968e-17</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>3.317233570817072e-17</v>
+        <v>3.073962316421745e-17</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>3.341152307086648e-17</v>
+        <v>3.097436531961517e-17</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>3.367224107387947e-17</v>
+        <v>3.122609743734799e-17</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>3.395377259680588e-17</v>
+        <v>3.149404603966107e-17</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>3.425540051924195e-17</v>
+        <v>3.177743764879957e-17</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>3.457640772078386e-17</v>
+        <v>3.207549878700866e-17</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>3.491607708102783e-17</v>
+        <v>3.238745597653349e-17</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>3.527512756943354e-17</v>
+        <v>3.271406148884662e-17</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>3.566765696235954e-17</v>
+        <v>3.307028168104878e-17</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>3.611504317169815e-17</v>
+        <v>3.347881756630128e-17</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>3.663873699455376e-17</v>
+        <v>3.396244759341808e-17</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>3.726018922803073e-17</v>
+        <v>3.454395021121317e-17</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>3.800085066923344e-17</v>
+        <v>3.524610386850055e-17</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>3.888217211526623e-17</v>
+        <v>3.609168701409418e-17</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>3.99256043632335e-17</v>
+        <v>3.710347809680806e-17</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>4.115259821023961e-17</v>
+        <v>3.830425556545618e-17</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>4.258460445338893e-17</v>
+        <v>3.971679786885253e-17</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>4.424307388978582e-17</v>
+        <v>4.136388345581108e-17</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>4.614945731653466e-17</v>
+        <v>4.326829077514583e-17</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>4.832520553073983e-17</v>
+        <v>4.545279827567076e-17</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>5.079176932950567e-17</v>
+        <v>4.794018440619986e-17</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>5.357059950993372e-17</v>
+        <v>5.075322761554423e-17</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>5.668314686913693e-17</v>
+        <v>5.391470635252651e-17</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>6.015086220420753e-17</v>
+        <v>5.744739906594845e-17</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>6.399519631225946e-17</v>
+        <v>6.13740842046337e-17</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>6.823759999039391e-17</v>
+        <v>6.571754021739304e-17</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>7.289952403571525e-17</v>
+        <v>7.050054555304042e-17</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>7.800241924532785e-17</v>
+        <v>7.574587866038989e-17</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>8.356773641633609e-17</v>
+        <v>8.147631798825538e-17</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>8.961692634584428e-17</v>
+        <v>8.771464198545089e-17</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>9.61712602666038e-17</v>
+        <v>9.448344046264665e-17</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>1.032051097869411e-16</v>
+        <v>1.017560336625679e-16</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>1.105834961916762e-16</v>
+        <v>1.093908657866088e-16</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>1.181558861561552e-16</v>
+        <v>1.172300404172841e-16</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>1.257717463557245e-16</v>
+        <v>1.251156611371087e-16</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>1.332805434657304e-16</v>
+        <v>1.328898315285971e-16</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>1.40531744161519e-16</v>
+        <v>1.403946551742641e-16</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>1.473748151184367e-16</v>
+        <v>1.474722356566244e-16</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>1.536592230118297e-16</v>
+        <v>1.539646765581927e-16</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>1.592344345170443e-16</v>
+        <v>1.597140814614838e-16</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>1.639499163094268e-16</v>
+        <v>1.645625539490122e-16</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>1.676551350643234e-16</v>
+        <v>1.683521976032929e-16</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>1.701995574570803e-16</v>
+        <v>1.709251160068404e-16</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>1.714326501630439e-16</v>
+        <v>1.721234127421695e-16</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>1.712066571983483e-16</v>
+        <v>1.717921363659602e-16</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>1.69516137707052e-16</v>
+        <v>1.699272403497285e-16</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>1.665632849781799e-16</v>
+        <v>1.667448445901637e-16</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>1.625667205913217e-16</v>
+        <v>1.6247848884525e-16</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>1.577450661260674e-16</v>
+        <v>1.573617128729718e-16</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>1.523169431620068e-16</v>
+        <v>1.516280564313132e-16</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>1.465009732787298e-16</v>
+        <v>1.455110592782587e-16</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>1.405157780558265e-16</v>
+        <v>1.392442611717926e-16</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>1.345799790728866e-16</v>
+        <v>1.330612018698992e-16</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>1.289121979095002e-16</v>
+        <v>1.271954211305627e-16</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>1.237073080159311e-16</v>
+        <v>1.218547655623781e-16</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>1.189984900353644e-16</v>
+        <v>1.17072145997295e-16</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>1.147515289842193e-16</v>
+        <v>1.128075578016731e-16</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>1.109319867615256e-16</v>
+        <v>1.090207549507149e-16</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>1.075054252663131e-16</v>
+        <v>1.056714914196228e-16</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>1.044374063976117e-16</v>
+        <v>1.027195211835994e-16</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>1.016934920544538e-16</v>
+        <v>1.001245982178496e-16</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>9.923924413586385e-17</v>
+        <v>9.78464764975708e-17</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>9.70402245408745e-17</v>
+        <v>9.584490999796823e-17</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>9.506199516851567e-17</v>
+        <v>9.407965269424451e-17</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>9.327011791781715e-17</v>
+        <v>9.251045856160203e-17</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>9.163015468780878e-17</v>
+        <v>9.109708157524337e-17</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>9.01076673775204e-17</v>
+        <v>8.9799275710371e-17</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>8.866821788598187e-17</v>
+        <v>8.857679494218751e-17</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>8.727736811222302e-17</v>
+        <v>8.738939324589534e-17</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>8.590067995527368e-17</v>
+        <v>8.619682459669704e-17</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>8.450371531416372e-17</v>
+        <v>8.495884296979511e-17</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>8.305203608792296e-17</v>
+        <v>8.363520234039208e-17</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>8.151190595067519e-17</v>
+        <v>8.218646240412549e-17</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>7.987401367025084e-17</v>
+        <v>8.060122574002322e-17</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>7.81592169254989e-17</v>
+        <v>7.890273238905597e-17</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>7.639024002077056e-17</v>
+        <v>7.711636549804781e-17</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>7.458980726041709e-17</v>
+        <v>7.526750821382279e-17</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>7.278064294878968e-17</v>
+        <v>7.3381543683205e-17</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>7.098547139023956e-17</v>
+        <v>7.148385505301852e-17</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>6.922701688911796e-17</v>
+        <v>6.959982547008738e-17</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>6.752800374977609e-17</v>
+        <v>6.775483808123572e-17</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>6.591115627656518e-17</v>
+        <v>6.597427603328757e-17</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>6.439919877383646e-17</v>
+        <v>6.4283522473067e-17</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>6.301485554594117e-17</v>
+        <v>6.270796054739811e-17</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>6.177611211085204e-17</v>
+        <v>6.126846687673204e-17</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>6.067732551452462e-17</v>
+        <v>5.99634477011749e-17</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>5.970550286850124e-17</v>
+        <v>5.878431956544945e-17</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>5.884764894622503e-17</v>
+        <v>5.772249679077545e-17</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>5.809076852113908e-17</v>
+        <v>5.676939369837262e-17</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>5.742186636668654e-17</v>
+        <v>5.591642460946067e-17</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>5.682794725631052e-17</v>
+        <v>5.515500384525937e-17</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>5.629631787499135e-17</v>
+        <v>5.44766984964386e-17</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>5.581994435129431e-17</v>
+        <v>5.387593937359279e-17</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>5.539681908178434e-17</v>
+        <v>5.334970061575517e-17</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>5.502510918035122e-17</v>
+        <v>5.28950447702055e-17</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>5.470298176088469e-17</v>
+        <v>5.250903438422362e-17</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>5.442860393727456e-17</v>
+        <v>5.218873200508935e-17</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>5.420014282341079e-17</v>
+        <v>5.19312001800827e-17</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>5.401576553318271e-17</v>
+        <v>5.173350145648301e-17</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>5.387363918048033e-17</v>
+        <v>5.159269838157036e-17</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>5.377193087919342e-17</v>
+        <v>5.150585350262455e-17</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>5.370880774321178e-17</v>
+        <v>5.147002936692544e-17</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>5.368243688642513e-17</v>
+        <v>5.14822885217528e-17</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>5.369098542272329e-17</v>
+        <v>5.153969351438645e-17</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>5.3732620465996e-17</v>
+        <v>5.163930689210622e-17</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>5.380550913013305e-17</v>
+        <v>5.177819120219191e-17</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>5.39078185290242e-17</v>
+        <v>5.195340899192334e-17</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>5.403771577655922e-17</v>
+        <v>5.216202280858031e-17</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>5.41933679866279e-17</v>
+        <v>5.240109519944265e-17</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>5.437294227311999e-17</v>
+        <v>5.266768871179018e-17</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>5.457460574992528e-17</v>
+        <v>5.295886589290269e-17</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>5.479652553093353e-17</v>
+        <v>5.327168929006e-17</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>5.503686873003452e-17</v>
+        <v>5.360322145054194e-17</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>5.529380246111801e-17</v>
+        <v>5.395052492162831e-17</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>5.556549383807376e-17</v>
+        <v>5.431066225059892e-17</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>5.585010997479157e-17</v>
+        <v>5.468069598473358e-17</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>5.614581798516123e-17</v>
+        <v>5.505768867131213e-17</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>5.645078498307245e-17</v>
+        <v>5.543870285761436e-17</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>5.676317808241506e-17</v>
+        <v>5.58208010909201e-17</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>5.708134711498782e-17</v>
+        <v>5.620128654699057e-17</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>5.740628506587407e-17</v>
+        <v>5.658094327527044e-17</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>5.774097413922466e-17</v>
+        <v>5.696317500690932e-17</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>5.808844514913035e-17</v>
+        <v>5.735144948941997e-17</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>5.845172890968192e-17</v>
+        <v>5.774923447031513e-17</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>5.883385623497006e-17</v>
+        <v>5.815999769710755e-17</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>5.923785793908558e-17</v>
+        <v>5.858720691730994e-17</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>5.966676483611917e-17</v>
+        <v>5.903432987843507e-17</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>6.012360774016161e-17</v>
+        <v>5.950483432799565e-17</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>6.061141746530362e-17</v>
+        <v>6.000218801350445e-17</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>6.113322482563595e-17</v>
+        <v>6.052985868247417e-17</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>6.169206063524935e-17</v>
+        <v>6.109131408241759e-17</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>6.229095570823457e-17</v>
+        <v>6.16900219608474e-17</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>6.293294085868233e-17</v>
+        <v>6.232945006527637e-17</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>6.362104690068341e-17</v>
+        <v>6.301306614321723e-17</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>6.43583046483278e-17</v>
+        <v>6.374433794218201e-17</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>6.514774491570767e-17</v>
+        <v>6.452673320968482e-17</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>6.599239851691309e-17</v>
+        <v>6.536371969323775e-17</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>6.689529626603478e-17</v>
+        <v>6.625876514035351e-17</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>6.785946897716348e-17</v>
+        <v>6.721533729854486e-17</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>6.888794746438994e-17</v>
+        <v>6.823690391532449e-17</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>6.998376254180495e-17</v>
+        <v>6.932693273820525e-17</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>7.114994502349921e-17</v>
+        <v>7.048889151469975e-17</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>7.238952572356348e-17</v>
+        <v>7.172624799232079e-17</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>7.370553545608848e-17</v>
+        <v>7.304246991858111e-17</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>7.5101005035165e-17</v>
+        <v>7.444102504099347e-17</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>7.657896527488373e-17</v>
+        <v>7.592538110707053e-17</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>7.814244698933546e-17</v>
+        <v>7.74990058643251e-17</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>7.979448099261091e-17</v>
+        <v>7.916536706026988e-17</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>8.153809809880083e-17</v>
+        <v>8.092793244241763e-17</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>8.337632912199599e-17</v>
+        <v>8.27901697582811e-17</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>8.53122048762871e-17</v>
+        <v>8.4755546755373e-17</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>8.734875617576494e-17</v>
+        <v>8.682753118120608e-17</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>8.948901383452019e-17</v>
+        <v>8.900959078329307e-17</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>9.173600866664366e-17</v>
+        <v>9.13051933091467e-17</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>9.409277148622607e-17</v>
+        <v>9.371780650627975e-17</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>9.656233310735817e-17</v>
+        <v>9.625089812220492e-17</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>9.914768373657063e-17</v>
+        <v>9.890788504345374e-17</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>1.018492861234177e-16</v>
+        <v>1.016890185159333e-16</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>1.046636322164517e-16</v>
+        <v>1.045895763560995e-16</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>1.075868660904034e-16</v>
+        <v>1.07604400668342e-16</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>1.106151318200033e-16</v>
+        <v>1.107283335570502e-16</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>1.13744573479982e-16</v>
+        <v>1.139562171266133e-16</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>1.169713351450702e-16</v>
+        <v>1.172828934814209e-16</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>1.202915608899983e-16</v>
+        <v>1.207032047258624e-16</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>1.237013947894972e-16</v>
+        <v>1.242119929643273e-16</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>1.271969809182975e-16</v>
+        <v>1.278041003012049e-16</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>1.307744633511296e-16</v>
+        <v>1.314743688408848e-16</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>1.344299861627242e-16</v>
+        <v>1.352176406877563e-16</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>1.381596934278119e-16</v>
+        <v>1.390287579462088e-16</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>1.419597292211234e-16</v>
+        <v>1.429025627206318e-16</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>1.458262376173892e-16</v>
+        <v>1.468338971154148e-16</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>1.497553626913362e-16</v>
+        <v>1.508176032349431e-16</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>1.537432485177025e-16</v>
+        <v>1.548485231836142e-16</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>1.577860391712151e-16</v>
+        <v>1.589214990658134e-16</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>1.618798787266044e-16</v>
+        <v>1.630313729859303e-16</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>1.660211767306553e-16</v>
+        <v>1.671733033283096e-16</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>1.702139798302062e-16</v>
+        <v>1.713515472190533e-16</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>1.744709338428733e-16</v>
+        <v>1.755806067245786e-16</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>1.788051433219824e-16</v>
+        <v>1.798755304430658e-16</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>1.832297128208593e-16</v>
+        <v>1.842513669726949e-16</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>1.8775774689283e-16</v>
+        <v>1.887231649116464e-16</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>1.924023500912201e-16</v>
+        <v>1.933059728581003e-16</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>1.971766269693556e-16</v>
+        <v>1.980148394102369e-16</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>2.020936820805621e-16</v>
+        <v>2.028648131662364e-16</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>2.071666199781656e-16</v>
+        <v>2.07870942724279e-16</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>2.124085452154919e-16</v>
+        <v>2.13048276682545e-16</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>2.178325623458667e-16</v>
+        <v>2.184118636392145e-16</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>2.234517759226159e-16</v>
+        <v>2.239767521924678e-16</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>2.292792904990653e-16</v>
+        <v>2.297579909404851e-16</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>2.353282106285407e-16</v>
+        <v>2.357706284814465e-16</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>2.416108304260837e-16</v>
+        <v>2.420288684522488e-16</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>2.481099974430205e-16</v>
+        <v>2.485162135632024e-16</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>2.547714575076155e-16</v>
+        <v>2.551774843446868e-16</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>2.61538589302932e-16</v>
+        <v>2.619550333463782e-16</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>2.683547715120333e-16</v>
+        <v>2.687912131179527e-16</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>2.751633828179824e-16</v>
+        <v>2.756283762090865e-16</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>2.819078019038431e-16</v>
+        <v>2.824088751694557e-16</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>2.885314074526783e-16</v>
+        <v>2.890750625487365e-16</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>2.949775781475516e-16</v>
+        <v>2.955692908966049e-16</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>3.01189692671526e-16</v>
+        <v>3.018339127627371e-16</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>3.071119601722296e-16</v>
+        <v>3.078121330904258e-16</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>3.127183318058531e-16</v>
+        <v>3.134776841920093e-16</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>3.180199850398238e-16</v>
+        <v>3.188425076802809e-16</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>3.230304483463729e-16</v>
+        <v>3.239209582529177e-16</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>3.27763250197732e-16</v>
+        <v>3.287273906075973e-16</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>3.322319190661325e-16</v>
+        <v>3.332761594419969e-16</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>3.364499834238057e-16</v>
+        <v>3.375816194537941e-16</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>3.404309717429832e-16</v>
+        <v>3.416581253406662e-16</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>3.441884124958927e-16</v>
+        <v>3.455200318002869e-16</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>3.477358341547731e-16</v>
+        <v>3.491816935303413e-16</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>3.510867651918519e-16</v>
+        <v>3.526574652285024e-16</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>3.542547340793607e-16</v>
+        <v>3.559617015924482e-16</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>3.572532692895308e-16</v>
+        <v>3.591087573198556e-16</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>3.600891375791026e-16</v>
+        <v>3.62105093528548e-16</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>3.627318496167783e-16</v>
+        <v>3.649136788370885e-16</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>3.651381535921285e-16</v>
+        <v>3.674825830342539e-16</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>3.672647864020971e-16</v>
+        <v>3.697598627258868e-16</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>3.690684849436277e-16</v>
+        <v>3.716935745178297e-16</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>3.705059861136645e-16</v>
+        <v>3.732317750159253e-16</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>3.715340268091509e-16</v>
+        <v>3.743225208260158e-16</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>3.721093439270311e-16</v>
+        <v>3.749138685539442e-16</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>3.721886743642485e-16</v>
+        <v>3.749538748055526e-16</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>3.717287550177472e-16</v>
+        <v>3.743905961866839e-16</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>3.706863225751039e-16</v>
+        <v>3.731720905081837e-16</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>3.690166785140061e-16</v>
+        <v>3.712546758801945e-16</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>3.666702621853329e-16</v>
+        <v>3.686226542101663e-16</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>3.635964843205345e-16</v>
+        <v>3.652662475879626e-16</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>3.597447556510605e-16</v>
+        <v>3.611756781034464e-16</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>3.55064486908361e-16</v>
+        <v>3.563411678464811e-16</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>3.49509609578866e-16</v>
+        <v>3.507561561531514e-16</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>3.431675677442318e-16</v>
+        <v>3.445090981023545e-16</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>3.362781348680911e-16</v>
+        <v>3.377968556941182e-16</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>3.290893890470472e-16</v>
+        <v>3.308222010141004e-16</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>3.218494083777037e-16</v>
+        <v>3.237879061479595e-16</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>3.147741579149638e-16</v>
+        <v>3.168702117715659e-16</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>3.078898705546734e-16</v>
+        <v>3.100886041272241e-16</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>3.011533473072943e-16</v>
+        <v>3.034052056665194e-16</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>2.945212854460484e-16</v>
+        <v>2.967820531345742e-16</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>2.879503822441582e-16</v>
+        <v>2.901811832765112e-16</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>2.813973349748457e-16</v>
+        <v>2.835646328374529e-16</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>2.748188409113333e-16</v>
+        <v>2.76894438562522e-16</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>2.68171597326843e-16</v>
+        <v>2.70132637196841e-16</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>2.614123014945974e-16</v>
+        <v>2.632412654855326e-16</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>2.544976506878249e-16</v>
+        <v>2.561823601737262e-16</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>2.473843421797278e-16</v>
+        <v>2.489179580065235e-16</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>2.400373182782461e-16</v>
+        <v>2.41418154169225e-16</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>2.324926822394903e-16</v>
+        <v>2.337225943418614e-16</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>2.248229242730082e-16</v>
+        <v>2.259064876796374e-16</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>2.171008278274259e-16</v>
+        <v>2.180453299404989e-16</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>2.093991763513994e-16</v>
+        <v>2.102146168824219e-16</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>2.017907532935769e-16</v>
+        <v>2.024898442633749e-16</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>1.943483421026068e-16</v>
+        <v>1.949465078413265e-16</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>1.871447262271375e-16</v>
+        <v>1.876601033742451e-16</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>1.802526891158175e-16</v>
+        <v>1.807061266200993e-16</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>1.737437938565182e-16</v>
+        <v>1.741587793245662e-16</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>1.676446142423565e-16</v>
+        <v>1.680445587335576e-16</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>1.619246617375074e-16</v>
+        <v>1.623294559242964e-16</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>1.565497699836129e-16</v>
+        <v>1.569755621866203e-16</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>1.514857726223151e-16</v>
+        <v>1.519449688103669e-16</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>1.466985032952561e-16</v>
+        <v>1.471997670853737e-16</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>1.421537956440776e-16</v>
+        <v>1.427020483014782e-16</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>1.378174833104219e-16</v>
+        <v>1.384139037485182e-16</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>1.336553999359308e-16</v>
+        <v>1.342974247163309e-16</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>1.296333791622465e-16</v>
+        <v>1.303147024947543e-16</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>1.257172546310107e-16</v>
+        <v>1.264278283736256e-16</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>1.218728599838658e-16</v>
+        <v>1.225988936427826e-16</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>1.180660288624535e-16</v>
+        <v>1.187899895920628e-16</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>1.142625949084159e-16</v>
+        <v>1.149632075113038e-16</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>1.104284285188635e-16</v>
+        <v>1.110806792346847e-16</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>1.065638470218287e-16</v>
+        <v>1.071425344289376e-16</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>1.027675286132101e-16</v>
+        <v>1.032574029867048e-16</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>9.915559386993737e-17</v>
+        <v>9.955315519900336e-17</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>9.584416336893978e-17</v>
+        <v>9.615766135685023e-17</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>9.294935768714678e-17</v>
+        <v>9.319879175126242e-17</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>9.058729740148784e-17</v>
+        <v>9.080441667325697e-17</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>8.887410308889231e-17</v>
+        <v>8.910240641385089e-17</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>8.783289133484436e-17</v>
+        <v>8.811891342413461e-17</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>8.701227276059356e-17</v>
+        <v>8.736112617350096e-17</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>8.592110812319964e-17</v>
+        <v>8.629226997635382e-17</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>8.457415330851687e-17</v>
+        <v>8.492663911008638e-17</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>8.313000250676663e-17</v>
+        <v>8.343521025658002e-17</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>8.174725994258628e-17</v>
+        <v>8.198897102815967e-17</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>8.058452984062234e-17</v>
+        <v>8.075890903715984e-17</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>7.980041642551202e-17</v>
+        <v>7.991601189590522e-17</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>7.955352392189956e-17</v>
+        <v>7.963126721672802e-17</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>7.999614119147849e-17</v>
+        <v>8.00688156094702e-17</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>8.112249742149146e-17</v>
+        <v>8.122143223862804e-17</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>8.27613021164032e-17</v>
+        <v>8.290243881701106e-17</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>8.473345642125228e-17</v>
+        <v>8.49166913751151e-17</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>8.685986148107711e-17</v>
+        <v>8.70690459434359e-17</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>8.897140142670046e-17</v>
+        <v>8.917670152430863e-17</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>9.097027916378603e-17</v>
+        <v>9.114503571197516e-17</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>9.278972438660313e-17</v>
+        <v>9.291778764764347e-17</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>9.436309411895384e-17</v>
+        <v>9.443885390286067e-17</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>9.562374538464034e-17</v>
+        <v>9.565213104917398e-17</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>9.650536308705616e-17</v>
+        <v>9.650177771298424e-17</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>9.69674198892362e-17</v>
+        <v>9.695256315873514e-17</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>9.701333947148194e-17</v>
+        <v>9.70043841113826e-17</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>9.665083300045184e-17</v>
+        <v>9.666056403130442e-17</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>9.588761164280435e-17</v>
+        <v>9.592442637887849e-17</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>9.473138656519795e-17</v>
+        <v>9.479929461448265e-17</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>9.319120165430138e-17</v>
+        <v>9.328998185326932e-17</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>9.129616239039941e-17</v>
+        <v>9.142372516177143e-17</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>8.909087939212801e-17</v>
+        <v>8.924509255615599e-17</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>8.662036570340188e-17</v>
+        <v>8.679910186555384e-17</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>8.392963436813568e-17</v>
+        <v>8.413077091909577e-17</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>8.106369843024412e-17</v>
+        <v>8.128511754591264e-17</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>7.806757093364194e-17</v>
+        <v>7.830715957513536e-17</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>7.498626492224381e-17</v>
+        <v>7.524191483589471e-17</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>7.186479343996441e-17</v>
+        <v>7.213440115732156e-17</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>6.874806665119774e-17</v>
+        <v>6.902953364880843e-17</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>6.566914783309712e-17</v>
+        <v>6.596039893193646e-17</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>6.263840848846008e-17</v>
+        <v>6.293742709658055e-17</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>5.966365663462163e-17</v>
+        <v>5.996848872850859e-17</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>5.675270028891682e-17</v>
+        <v>5.706145441348843e-17</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>5.391334746868064e-17</v>
+        <v>5.422419473728794e-17</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>5.115340619124814e-17</v>
+        <v>5.146458028567499e-17</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>4.848068447395682e-17</v>
+        <v>4.879048164441997e-17</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>4.590299033413411e-17</v>
+        <v>4.62097693992831e-17</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>4.342813178912498e-17</v>
+        <v>4.373031413604226e-17</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>4.106391685625488e-17</v>
+        <v>4.13599864404557e-17</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>3.881815355286795e-17</v>
+        <v>3.910665689830044e-17</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>3.669864989629253e-17</v>
+        <v>3.697819609533766e-17</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>3.471321390386587e-17</v>
+        <v>3.498247461733743e-17</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>3.286964560782782e-17</v>
+        <v>3.312735515774295e-17</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>3.11719472903357e-17</v>
+        <v>3.141694678200162e-17</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>2.961425858941269e-17</v>
+        <v>2.984561049517517e-17</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>2.818913881879128e-17</v>
+        <v>2.840614533816995e-17</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>2.688914729220397e-17</v>
+        <v>2.709135035189237e-17</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>2.570684332338325e-17</v>
+        <v>2.58940245772488e-17</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>2.463478622606163e-17</v>
+        <v>2.480696705514561e-17</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>2.36655353139716e-17</v>
+        <v>2.382297682648921e-17</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>2.279164990084566e-17</v>
+        <v>2.293485293218596e-17</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>2.20056893004163e-17</v>
+        <v>2.213539441314224e-17</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>2.130021282641604e-17</v>
+        <v>2.141740031026444e-17</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>2.066777979257736e-17</v>
+        <v>2.077366966445895e-17</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>2.010094951263277e-17</v>
+        <v>2.019700151663214e-17</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>1.959228130031476e-17</v>
+        <v>1.96801949076904e-17</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>1.91348060175354e-17</v>
+        <v>1.921641809465514e-17</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>1.872520824906987e-17</v>
+        <v>1.880170015221064e-17</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>1.836187860754179e-17</v>
+        <v>1.843340595274258e-17</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>1.804321733281224e-17</v>
+        <v>1.810890790663881e-17</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>1.776762466474228e-17</v>
+        <v>1.782557842428718e-17</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>1.753350084319299e-17</v>
+        <v>1.758078991607556e-17</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>1.733924610802542e-17</v>
+        <v>1.737191479239178e-17</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>1.718326069910065e-17</v>
+        <v>1.719632546362372e-17</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>1.706394485627975e-17</v>
+        <v>1.705139434015923e-17</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>1.697513896698958e-17</v>
+        <v>1.693107359884695e-17</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>1.688669403500071e-17</v>
+        <v>1.681132156788587e-17</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>1.676059987848717e-17</v>
+        <v>1.666220009285339e-17</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>1.655884175577054e-17</v>
+        <v>1.645376759909338e-17</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>1.624341168744408e-17</v>
+        <v>1.615608871376412e-17</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>1.583712773258872e-17</v>
+        <v>1.579501283893779e-17</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>1.555133653323661e-17</v>
+        <v>1.556719640556478e-17</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>1.538613357153305e-17</v>
+        <v>1.544955143427929e-17</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>1.516970029057765e-17</v>
+        <v>1.524411800134098e-17</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>1.482023534616992e-17</v>
+        <v>1.486154239906963e-17</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>1.440856933459626e-17</v>
+        <v>1.439561754108055e-17</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>1.401964935425908e-17</v>
+        <v>1.395707506075345e-17</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>1.373351760233257e-17</v>
+        <v>1.365016002312083e-17</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>1.354928647842782e-17</v>
+        <v>1.347209053409023e-17</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>1.339967308195312e-17</v>
+        <v>1.333227912863187e-17</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>1.321998542431084e-17</v>
+        <v>1.314402103996615e-17</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>1.299610817917093e-17</v>
+        <v>1.289256608821261e-17</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>1.274547214099928e-17</v>
+        <v>1.260804424153478e-17</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>1.24859789729214e-17</v>
+        <v>1.232125328171605e-17</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>1.222999084083225e-17</v>
+        <v>1.20537155477265e-17</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>1.197473247393133e-17</v>
+        <v>1.180160695763121e-17</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>1.171486652054449e-17</v>
+        <v>1.155681343102839e-17</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>1.14450556289976e-17</v>
+        <v>1.131122088751624e-17</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>1.115996244761651e-17</v>
+        <v>1.105671524669294e-17</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>1.085424962472707e-17</v>
+        <v>1.078518242815669e-17</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>1.052257980865515e-17</v>
+        <v>1.04885083515057e-17</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>1.01596156477266e-17</v>
+        <v>1.015857893633815e-17</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>9.760019790267267e-18</v>
+        <v>9.787280102252235e-18</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>9.323490388152331e-18</v>
+        <v>9.371806958871819e-18</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>8.888742464156984e-18</v>
+        <v>8.950492106795839e-18</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>8.512709135534162e-18</v>
+        <v>8.580876419349202e-18</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>8.252426325549726e-18</v>
+        <v>8.320609163516556e-18</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>8.164929957469542e-18</v>
+        <v>8.227339606282567e-18</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>8.307245678381445e-18</v>
+        <v>8.358706825497368e-18</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>8.715652837103151e-18</v>
+        <v>8.751779330531243e-18</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>9.362173870499338e-18</v>
+        <v>9.379913001618202e-18</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>1.020642839145722e-17</v>
+        <v>1.020416595210151e-17</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>1.120803601286401e-17</v>
+        <v>1.118559629532441e-17</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>1.232661634760694e-17</v>
+        <v>1.22852621446302e-17</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>1.352178900857321e-17</v>
+        <v>1.346422161336211e-17</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>1.475317360865006e-17</v>
+        <v>1.468353281486342e-17</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>1.59803897607247e-17</v>
+        <v>1.590425386247739e-17</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>1.716356933177289e-17</v>
+        <v>1.70877903033959e-17</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>1.826858603042821e-17</v>
+        <v>1.819944206103912e-17</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>1.92649192337011e-17</v>
+        <v>1.920695458589836e-17</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>2.012210412846908e-17</v>
+        <v>2.007811118123752e-17</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>2.08096759016037e-17</v>
+        <v>2.078069515031445e-17</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>2.129735141231494e-17</v>
+        <v>2.128267695119261e-17</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>2.15752643024879e-17</v>
+        <v>2.157305995772036e-17</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>2.167238530656233e-17</v>
+        <v>2.168085665340983e-17</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>2.162203556977369e-17</v>
+        <v>2.163956121829458e-17</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>2.145753623735775e-17</v>
+        <v>2.148266783240861e-17</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>2.121206998298276e-17</v>
+        <v>2.124353219253631e-17</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>2.090857206413827e-17</v>
+        <v>2.094526171477077e-17</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>2.055286583605609e-17</v>
+        <v>2.059385046931952e-17</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>2.014914909555837e-17</v>
+        <v>2.019366683084188e-17</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>1.970161963946727e-17</v>
+        <v>1.974907917399719e-17</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>1.921447526460495e-17</v>
+        <v>1.926445587344475e-17</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>1.869191376779355e-17</v>
+        <v>1.874416530384389e-17</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>1.813820296695402e-17</v>
+        <v>1.819263142953393e-17</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>1.755819026717962e-17</v>
+        <v>1.761473834852821e-17</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>1.695700930027727e-17</v>
+        <v>1.701559739394051e-17</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>1.633979572270348e-17</v>
+        <v>1.640032150625197e-17</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>1.571168519091481e-17</v>
+        <v>1.577402362594371e-17</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>1.507781336136781e-17</v>
+        <v>1.514181669349685e-17</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>1.444331589051902e-17</v>
+        <v>1.450881364939252e-17</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>1.381332843482498e-17</v>
+        <v>1.388012743411184e-17</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>1.319298665074223e-17</v>
+        <v>1.326087098813593e-17</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>1.258742619472732e-17</v>
+        <v>1.265615725194593e-17</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>1.20017827232368e-17</v>
+        <v>1.207109916602296e-17</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>1.14411918927272e-17</v>
+        <v>1.151080967084813e-17</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>1.09105472669541e-17</v>
+        <v>1.098016122171334e-17</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>1.041137509738078e-17</v>
+        <v>1.048068132079709e-17</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>9.942734050633747e-18</v>
+        <v>1.001144627036957e-17</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>9.503626115369855e-18</v>
+        <v>9.571476071076771e-18</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>9.093053280245944e-18</v>
+        <v>9.159790723564719e-18</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>8.710017533918858e-18</v>
+        <v>8.775410228479414e-18</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>8.35352086504544e-18</v>
+        <v>8.417354586466868e-18</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>8.022565262282533e-18</v>
+        <v>8.084643798173091e-18</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>7.716152714286985e-18</v>
+        <v>7.776297864244095e-18</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>7.433285209715632e-18</v>
+        <v>7.491336785325883e-18</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>7.172964737225563e-18</v>
+        <v>7.228780562064711e-18</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>6.934193285472897e-18</v>
+        <v>6.987649195105859e-18</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>6.715972843115403e-18</v>
+        <v>6.766962685096269e-18</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>6.517305398809078e-18</v>
+        <v>6.565741032681096e-18</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>6.337192941211536e-18</v>
+        <v>6.38300423850713e-18</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>6.174637458979072e-18</v>
+        <v>6.217772303219822e-18</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>6.028640940768711e-18</v>
+        <v>6.069065227465369e-18</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>5.898205375237296e-18</v>
+        <v>5.935903011889776e-18</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>5.782332751041673e-18</v>
+        <v>5.817305657139057e-18</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>5.680025056838684e-18</v>
+        <v>5.712293163859221e-18</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>5.590284281285171e-18</v>
+        <v>5.619885532696274e-18</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>5.51211241303798e-18</v>
+        <v>5.539102764296229e-18</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>5.444511440753952e-18</v>
+        <v>5.468964859305093e-18</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>5.386483353089934e-18</v>
+        <v>5.408491818368877e-18</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>5.337030138702764e-18</v>
+        <v>5.356703642133589e-18</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>5.295153786249289e-18</v>
+        <v>5.312620331245239e-18</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>5.259856284386354e-18</v>
+        <v>5.275261886349836e-18</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>5.230139621770798e-18</v>
+        <v>5.243648308093389e-18</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>5.205005787059468e-18</v>
+        <v>5.21679959712191e-18</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>5.183456768909206e-18</v>
+        <v>5.193735754081404e-18</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>5.164494555976855e-18</v>
+        <v>5.173476779617884e-18</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>5.147121136919258e-18</v>
+        <v>5.155042674377356e-18</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>5.130338500393263e-18</v>
+        <v>5.137453439005835e-18</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>5.113148635055706e-18</v>
+        <v>5.119729074149324e-18</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>5.094553529563437e-18</v>
+        <v>5.100889580453836e-18</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>5.073555172573295e-18</v>
+        <v>5.079954958565379e-18</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>5.049155552742126e-18</v>
+        <v>5.055945209129963e-18</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>5.020361999020217e-18</v>
+        <v>5.027885514891997e-18</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>4.986861596473535e-18</v>
+        <v>4.995460678355554e-18</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>4.949680075897589e-18</v>
+        <v>4.959654493168789e-18</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>4.909999577716213e-18</v>
+        <v>4.92160252929943e-18</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>4.869002242353247e-18</v>
+        <v>4.88244035671521e-18</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>4.827870210232529e-18</v>
+        <v>4.84330354538386e-18</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>4.787785621777893e-18</v>
+        <v>4.80532766527311e-18</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>4.749930617413181e-18</v>
+        <v>4.769648286350694e-18</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>4.715487337562227e-18</v>
+        <v>4.737400978584339e-18</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>4.68563792264887e-18</v>
+        <v>4.709721311941779e-18</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>4.661564513096968e-18</v>
+        <v>4.687744856390761e-18</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>4.644449249330296e-18</v>
+        <v>4.672607181898965e-18</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>4.635474271772759e-18</v>
+        <v>4.665443858434176e-18</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>4.63582172084816e-18</v>
+        <v>4.667390455964101e-18</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>4.646673736980333e-18</v>
+        <v>4.67958254445646e-18</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>4.669212460593132e-18</v>
+        <v>4.703155693879004e-18</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>4.704620032110387e-18</v>
+        <v>4.739245474199459e-18</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>4.754078591955941e-18</v>
+        <v>4.788987455385557e-18</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>4.818770280553625e-18</v>
+        <v>4.853517207405027e-18</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>4.899877238327281e-18</v>
+        <v>4.933970300225601e-18</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>4.998581605700745e-18</v>
+        <v>5.03148230381501e-18</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>5.116065523097852e-18</v>
+        <v>5.147188788140983e-18</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>5.253511130942443e-18</v>
+        <v>5.282225323171254e-18</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>5.412100569658354e-18</v>
+        <v>5.437727478873553e-18</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>5.593015979669424e-18</v>
+        <v>5.614830825215612e-18</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>5.79743950139949e-18</v>
+        <v>5.814670932165161e-18</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>6.026553275272386e-18</v>
+        <v>6.038383369689931e-18</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>6.281539441711954e-18</v>
+        <v>6.287103707757653e-18</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>6.563341890296499e-18</v>
+        <v>6.561759128541579e-18</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>6.870281774703895e-18</v>
+        <v>6.860982819628795e-18</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>7.199055413141921e-18</v>
+        <v>7.181986794720297e-18</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>7.54633491047316e-18</v>
+        <v>7.52196188914271e-18</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>7.908792371560209e-18</v>
+        <v>7.87809893822266e-18</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>8.283099901265647e-18</v>
+        <v>8.247588777286771e-18</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>8.665929604452068e-18</v>
+        <v>8.627622241661665e-18</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>9.053953585982059e-18</v>
+        <v>9.01539016667397e-18</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>9.443843950718207e-18</v>
+        <v>9.408083387650312e-18</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>9.832272803523099e-18</v>
+        <v>9.80289273991731e-18</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>1.021585810747154e-17</v>
+        <v>1.019684716870373e-17</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>1.059078784829163e-17</v>
+        <v>1.058568993811118e-17</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>1.095304496744811e-17</v>
+        <v>1.096455120659369e-17</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>1.129861114362348e-17</v>
+        <v>1.132855735674291e-17</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>1.162346805550028e-17</v>
+        <v>1.167283477115052e-17</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>1.192359738176101e-17</v>
+        <v>1.199250983240818e-17</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>1.219498080108819e-17</v>
+        <v>1.228270892310754e-17</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>1.243359999216434e-17</v>
+        <v>1.253855842584029e-17</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>1.263543663367198e-17</v>
+        <v>1.275518472319808e-17</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>1.279647240429348e-17</v>
+        <v>1.292771419777243e-17</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>1.291268898271178e-17</v>
+        <v>1.305127323215545e-17</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>1.298006804760895e-17</v>
+        <v>1.312098820893833e-17</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>1.299459127766774e-17</v>
+        <v>1.313198551071299e-17</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>1.295224035157064e-17</v>
+        <v>1.307939152007107e-17</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>1.285010190146374e-17</v>
+        <v>1.295975787072663e-17</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>1.269210452229715e-17</v>
+        <v>1.277846146866757e-17</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>1.248479237002728e-17</v>
+        <v>1.254425296491525e-17</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>1.223471485315163e-17</v>
+        <v>1.226588978560904e-17</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>1.194842138016773e-17</v>
+        <v>1.195212935688829e-17</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>1.163246135957307e-17</v>
+        <v>1.161172910489237e-17</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>1.129338419986518e-17</v>
+        <v>1.125344645576067e-17</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>1.093773930954156e-17</v>
+        <v>1.088603883563252e-17</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>1.057207609709973e-17</v>
+        <v>1.05182636706473e-17</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>1.020288120974987e-17</v>
+        <v>1.015868674169655e-17</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>9.835279897500473e-18</v>
+        <v>9.811716723990143e-18</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>9.473080126501895e-18</v>
+        <v>9.477739889721243e-18</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>9.120035927286859e-18</v>
+        <v>9.156977815531871e-18</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>8.779901330388088e-18</v>
+        <v>8.849652078064035e-18</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>8.456430366338311e-18</v>
+        <v>8.555984253959751e-18</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>8.153377065670249e-18</v>
+        <v>8.276195919861033e-18</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>7.874495458916627e-18</v>
+        <v>8.010508652409892e-18</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>7.623539576610172e-18</v>
+        <v>7.759144028248342e-18</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>7.404255922806672e-18</v>
+        <v>7.522323335935802e-18</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>7.217937343630086e-18</v>
+        <v>7.300173948092323e-18</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>7.059904988096954e-18</v>
+        <v>7.092594665320602e-18</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>6.924588846586346e-18</v>
+        <v>6.899450178333979e-18</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>6.806418909477324e-18</v>
+        <v>6.720605177845799e-18</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>6.69982516714895e-18</v>
+        <v>6.5559243545694e-18</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>6.599237609980288e-18</v>
+        <v>6.405272399218126e-18</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>6.4990862283504e-18</v>
+        <v>6.268514002505318e-18</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>6.394623568578311e-18</v>
+        <v>6.145544189843016e-18</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>6.287423680373419e-18</v>
+        <v>6.036491114739879e-18</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>6.181991600780568e-18</v>
+        <v>5.941591021368542e-18</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>6.082848419227803e-18</v>
+        <v>5.861080745890798e-18</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>5.994515225143176e-18</v>
+        <v>5.795197124468449e-18</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>5.921513107954738e-18</v>
+        <v>5.744176993263295e-18</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>5.868288634330662e-18</v>
+        <v>5.708260236958963e-18</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>5.836902671567702e-18</v>
+        <v>5.687784332659771e-18</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>5.826584086175882e-18</v>
+        <v>5.683202606858355e-18</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>5.836397137913397e-18</v>
+        <v>5.694975119658192e-18</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>5.865406086538439e-18</v>
+        <v>5.723561931162736e-18</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>5.912675191809289e-18</v>
+        <v>5.769423101475538e-18</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>5.977268713484159e-18</v>
+        <v>5.833018690700073e-18</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>6.058250911321278e-18</v>
+        <v>5.914808758939835e-18</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>6.154678561163013e-18</v>
+        <v>6.015203276363915e-18</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>6.265430027393531e-18</v>
+        <v>6.133418103212713e-18</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>6.389201701889302e-18</v>
+        <v>6.26745115565289e-18</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>6.524681780313818e-18</v>
+        <v>6.415245492504015e-18</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>6.670558458330579e-18</v>
+        <v>6.57474417258566e-18</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>6.825519931603081e-18</v>
+        <v>6.743890254717401e-18</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>6.988254395794818e-18</v>
+        <v>6.920626797718808e-18</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>7.157450046569287e-18</v>
+        <v>7.102896860409455e-18</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>7.331795079589985e-18</v>
+        <v>7.288643501608912e-18</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>7.509983609403855e-18</v>
+        <v>7.475908975875677e-18</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>7.690753071670333e-18</v>
+        <v>7.66346156486521e-18</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>7.872860154352629e-18</v>
+        <v>7.850392203401503e-18</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>8.055061632759795e-18</v>
+        <v>8.035793290154793e-18</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>8.236114282200872e-18</v>
+        <v>8.218757223795308e-18</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>8.414774877984912e-18</v>
+        <v>8.398376402993294e-18</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>8.589800195420964e-18</v>
+        <v>8.573743226418986e-18</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>8.759947009818073e-18</v>
+        <v>8.743950092742619e-18</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>8.923972096485287e-18</v>
+        <v>8.908089400634431e-18</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>9.08061742224454e-18</v>
+        <v>9.06523739837426e-18</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>9.227179206805176e-18</v>
+        <v>9.212893577608928e-18</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>9.358315016857307e-18</v>
+        <v>9.345679669681208e-18</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>9.468401606298319e-18</v>
+        <v>9.457911146678905e-18</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>9.551815729025606e-18</v>
+        <v>9.543903480689829e-18</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>9.602934138936539e-18</v>
+        <v>9.597972143801772e-18</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>9.616133589928511e-18</v>
+        <v>9.614432608102547e-18</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>9.585790835898903e-18</v>
+        <v>9.587600345679955e-18</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>9.506282630745102e-18</v>
+        <v>9.511790828621802e-18</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>9.371988812043817e-18</v>
+        <v>9.381322597485508e-18</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>9.180012545186148e-18</v>
+        <v>9.193224088305341e-18</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>8.935176361379957e-18</v>
+        <v>8.952205028512237e-18</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>8.64366110480096e-18</v>
+        <v>8.664326758864143e-18</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>8.311647619626779e-18</v>
+        <v>8.33565062012089e-18</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>7.94531884530085e-18</v>
+        <v>7.972240046567421e-18</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>7.55812484448241e-18</v>
+        <v>7.587419558262953e-18</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>7.187053049434371e-18</v>
+        <v>7.218031490297293e-18</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>6.873847627747477e-18</v>
+        <v>6.905670961247646e-18</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>6.660252747012103e-18</v>
+        <v>6.691933089690846e-18</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>6.58801225511424e-18</v>
+        <v>6.61841267845307e-18</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>6.677475569345065e-18</v>
+        <v>6.705574680640324e-18</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>6.869653645835485e-18</v>
+        <v>6.895526751934109e-18</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>7.087170456463136e-18</v>
+        <v>7.1122169521175e-18</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>7.254142615741879e-18</v>
+        <v>7.281031147635291e-18</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>7.333458728377232e-18</v>
+        <v>7.364702808727629e-18</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>7.329420048236086e-18</v>
+        <v>7.365856657163126e-18</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>7.248349322455573e-18</v>
+        <v>7.289064643350413e-18</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>7.096569298172823e-18</v>
+        <v>7.13889871769813e-18</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>6.88040351252361e-18</v>
+        <v>6.919931783065552e-18</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>6.611590943365992e-18</v>
+        <v>6.643265791483128e-18</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>6.320216707127454e-18</v>
+        <v>6.342121456309087e-18</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>6.040247183586119e-18</v>
+        <v>6.054398880920337e-18</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>5.805301850720721e-18</v>
+        <v>5.817607547967486e-18</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>5.625721356432522e-18</v>
+        <v>5.643044353345581e-18</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>5.474270714358141e-18</v>
+        <v>5.499695021392531e-18</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>5.320301545793234e-18</v>
+        <v>5.352701705159781e-18</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>5.133824605024367e-18</v>
+        <v>5.168008156865485e-18</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>4.900948825750699e-18</v>
+        <v>4.931135797241941e-18</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>4.624420418648076e-18</v>
+        <v>4.647839334605046e-18</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>4.307752616555879e-18</v>
+        <v>4.324806259952828e-18</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>3.955754986131471e-18</v>
+        <v>3.969317512939834e-18</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>3.5779722749119e-18</v>
+        <v>3.590821751668162e-18</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>3.185030102356539e-18</v>
+        <v>3.199262446595546e-18</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>2.787554087924758e-18</v>
+        <v>2.804583068179723e-18</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>2.396169851075933e-18</v>
+        <v>2.416727086878429e-18</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>2.021503011269435e-18</v>
+        <v>2.045637973149401e-18</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>1.674179187964638e-18</v>
+        <v>1.701259197450375e-18</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>1.364824000620915e-18</v>
+        <v>1.393534230239088e-18</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>1.104063068697863e-18</v>
+        <v>1.132406541973504e-18</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>9.023684278259174e-19</v>
+        <v>9.276826580854713e-19</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>7.595000862669848e-19</v>
+        <v>7.796175849793678e-19</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>6.576911375632715e-19</v>
+        <v>6.728382267700932e-19</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>5.776721630995279e-19</v>
+        <v>5.906135036364045e-19</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>5.07829800470632e-19</v>
+        <v>5.21859934798766e-19</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>4.487425634733725e-19</v>
+        <v>4.644875508192543e-19</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>4.018186769792845e-19</v>
+        <v>4.172583362504861e-19</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>3.665628360700856e-19</v>
+        <v>3.793002909671403e-19</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>3.416277753231738e-19</v>
+        <v>3.499052318747816e-19</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>3.256622364368876e-19</v>
+        <v>3.283657436394389e-19</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>3.173149611095652e-19</v>
+        <v>3.139744109271416e-19</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>3.152346910395451e-19</v>
+        <v>3.060238184039184e-19</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>3.18070980851246e-19</v>
+        <v>3.038067815656132e-19</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>3.247489671102878e-19</v>
+        <v>3.066943672152399e-19</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>3.348693279549715e-19</v>
+        <v>3.142494617317952e-19</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>3.481343572836286e-19</v>
+        <v>3.260638052211092e-19</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>3.642463489945909e-19</v>
+        <v>3.417291377890117e-19</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>3.829075969861896e-19</v>
+        <v>3.608371995413322e-19</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>4.038203951567565e-19</v>
+        <v>3.82979730583901e-19</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>4.26687037404623e-19</v>
+        <v>4.077484710225477e-19</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>4.512098176281207e-19</v>
+        <v>4.347351609631021e-19</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>4.770910297255813e-19</v>
+        <v>4.63531540511394e-19</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>5.040329675953359e-19</v>
+        <v>4.937293497732533e-19</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>5.317379251357164e-19</v>
+        <v>5.249203288545097e-19</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>5.599081962450542e-19</v>
+        <v>5.566962178609932e-19</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>5.882460748216809e-19</v>
+        <v>5.886487568985335e-19</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>6.164538547639281e-19</v>
+        <v>6.203696860729603e-19</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>6.442338299701272e-19</v>
+        <v>6.514507454901039e-19</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>6.712882943386098e-19</v>
+        <v>6.814836752557935e-19</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>6.973195417677075e-19</v>
+        <v>7.100602154758592e-19</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>7.220298661557518e-19</v>
+        <v>7.36772106256131e-19</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>7.451215614010742e-19</v>
+        <v>7.612110877024384e-19</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>7.663031236420005e-19</v>
+        <v>7.829810658598391e-19</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>7.853993123026804e-19</v>
+        <v>8.019140018101179e-19</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>8.023381426175415e-19</v>
+        <v>8.180443969936843e-19</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>8.170512190802676e-19</v>
+        <v>8.314137933250375e-19</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>8.29470146184532e-19</v>
+        <v>8.42063732718668e-19</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>8.395265284240515e-19</v>
+        <v>8.500357570891022e-19</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>8.471519702924709e-19</v>
+        <v>8.553714083508084e-19</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>8.522780762835045e-19</v>
+        <v>8.581122284183072e-19</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>8.548364508908155e-19</v>
+        <v>8.582997592060872e-19</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>8.547586986080996e-19</v>
+        <v>8.559755426286518e-19</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>8.519764239290371e-19</v>
+        <v>8.511811206004992e-19</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>8.464212313473119e-19</v>
+        <v>8.439580350361289e-19</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>8.380247253566083e-19</v>
+        <v>8.343478278500401e-19</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>8.2671851045061e-19</v>
+        <v>8.223920409567326e-19</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>8.12434191123001e-19</v>
+        <v>8.081322162707053e-19</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>7.951033718674659e-19</v>
+        <v>7.916098957064584e-19</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>7.746576571776876e-19</v>
+        <v>7.728666211784903e-19</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>7.510286515473511e-19</v>
+        <v>7.519439346013012e-19</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>7.241479594701402e-19</v>
+        <v>7.288833778893902e-19</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>6.939471854397387e-19</v>
+        <v>7.037264929572569e-19</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>6.606704049765306e-19</v>
+        <v>6.766490930105233e-19</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>6.285109574757901e-19</v>
+        <v>6.495240214245101e-19</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>6.043690588614862e-19</v>
+        <v>6.253872879975385e-19</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>5.951977509145481e-19</v>
+        <v>6.072976022197816e-19</v>
       </c>
     </row>
   </sheetData>
